--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Desktop\Projects\7-Segment-RGB-Clock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\Fancy-7-Segment-LED-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{CAE9D4D2-2766-4BC1-966A-9BF6F3E38C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{1D9EEF7A-5A2B-4C40-B1B3-C85032B664D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="2" r:id="rId1"/>
@@ -18,10 +17,10 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Controller!$A$1:$G$47</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Controller!$A$1:$H$45</definedName>
     <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">'Digit+Colon'!$A$1:$H$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,18 +30,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{39AD3A20-8AB8-4D41-BBA2-6070826C4954}" keepAlive="1" name="Abfrage - Controller" description="Verbindung mit der Abfrage 'Controller' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Abfrage - Controller" description="Verbindung mit der Abfrage 'Controller' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Controller;Extended Properties=&quot;&quot;" command="SELECT * FROM [Controller]"/>
   </connection>
-  <connection id="2" xr16:uid="{6F1B2BD1-65F7-4CC0-A477-EF9AFB5D05F9}" keepAlive="1" name="Abfrage - Digit_Colon" description="Verbindung mit der Abfrage 'Digit_Colon' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Abfrage - Digit_Colon" description="Verbindung mit der Abfrage 'Digit_Colon' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Digit_Colon;Extended Properties=&quot;&quot;" command="SELECT * FROM [Digit_Colon]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="231">
   <si>
     <t>Ref</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -248,18 +244,6 @@
     <t>MF-MSMF050-2 500mA</t>
   </si>
   <si>
-    <t>H1, H2</t>
-  </si>
-  <si>
-    <t>MountingHole_Pad</t>
-  </si>
-  <si>
-    <t>MountingHole:MountingHole_3.2mm_M3_Pad_Via</t>
-  </si>
-  <si>
-    <t>Mounting Hole with connection</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -455,18 +439,6 @@
     <t>Push button switch, generic, two pins</t>
   </si>
   <si>
-    <t>TP16, TP15, TP14, TP13, TP12, TP4, TP1, TP3, TP5, TP7, TP9, TP10, TP11, TP2</t>
-  </si>
-  <si>
-    <t>TestPoint_Alt</t>
-  </si>
-  <si>
-    <t>TestPoint:TestPoint_Loop_D2.60mm_Drill1.6mm_Beaded</t>
-  </si>
-  <si>
-    <t>test point (alternative shape)</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -663,12 +635,111 @@
   </si>
   <si>
     <t xml:space="preserve">667-EEE-HA1E331UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-CR0805FX-56R0ELF </t>
+  </si>
+  <si>
+    <t>81-CSTNE16M0V53Z000R</t>
+  </si>
+  <si>
+    <t>579-MCP6001T-I/OT</t>
+  </si>
+  <si>
+    <t>595-SN74AHC1G14DBVR</t>
+  </si>
+  <si>
+    <t>700-DS3231M+TRL</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328P-AU</t>
+  </si>
+  <si>
+    <t>895-FT232RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SI4435FDY-T1-GE3 </t>
+  </si>
+  <si>
+    <t>963-LBR2012T100K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQ2309ES-T1_GE3 </t>
+  </si>
+  <si>
+    <t>530-SS-52300-002</t>
+  </si>
+  <si>
+    <t>279-CRGP0603F1K0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">755-SFR03EZPF4701 </t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>71-CRCW0603330RFKEAC</t>
+  </si>
+  <si>
+    <t>603-AC0603FR-13100RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW060347K0FKEAC </t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>710-885012207092</t>
+  </si>
+  <si>
+    <t>647-UUR1A101MCL1GS</t>
+  </si>
+  <si>
+    <t>647-UUA1V4R7MCL1GS</t>
+  </si>
+  <si>
+    <t>810-CGA3E2X7R1H104K</t>
+  </si>
+  <si>
+    <t>710-885012206089</t>
+  </si>
+  <si>
+    <t>out of stock</t>
+  </si>
+  <si>
+    <t>859-LTST-C191KFKT</t>
+  </si>
+  <si>
+    <t>859-LTSTC193TBKT5A</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KGKT</t>
+  </si>
+  <si>
+    <t>863-MBR130T1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-0154001.DR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-1812L050PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-0154004.DRT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-MCP4012T-503E/CH </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,14 +769,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -759,11 +836,12 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{EC2C3561-C462-4304-AE10-AF54CA1A78F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Ref" tableColumnId="1"/>
       <queryTableField id="2" name="Qnty" tableColumnId="2"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="3" name="Value" tableColumnId="3"/>
       <queryTableField id="4" name="Cmp name" tableColumnId="4"/>
       <queryTableField id="5" name="Footprint" tableColumnId="5"/>
@@ -775,7 +853,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{DBF9157C-ADD0-47BC-8619-7BA0FFED9F1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="Ref" tableColumnId="1"/>
@@ -792,35 +870,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{176A9F97-5B16-4890-BA2C-6B71B7DD59E4}" name="Controller" displayName="Controller" ref="A1:G47" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G47" xr:uid="{D2FA3F4C-053C-457A-BD9C-935131BD5E09}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BB8DD62F-F3C2-488D-AD79-24985D55C08E}" uniqueName="1" name="Ref" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{50F33C4A-D831-42D6-B5BF-3292FB3ACF88}" uniqueName="2" name="Qnty" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{AD32AEEC-CF08-48D7-9DA5-A4FBBEB0A4F2}" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{320D62F3-DDEB-4C39-B716-F2FFDC5B3878}" uniqueName="4" name="Cmp name" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{41E70BCB-50AA-4B9C-9D3B-A73416A5AC42}" uniqueName="5" name="Footprint" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D43FF049-5FD9-4F78-A465-E6C6A0D882AE}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E726AED7-F0C8-4A4E-91EA-97BC19DD5293}" uniqueName="7" name="Vendor" queryTableFieldId="7" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controller" displayName="Controller" ref="A1:H45" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H45"/>
+  <tableColumns count="8">
+    <tableColumn id="1" uniqueName="1" name="Ref" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" uniqueName="2" name="Qnty" queryTableFieldId="2"/>
+    <tableColumn id="8" uniqueName="8" name="Spalte1" queryTableFieldId="8" dataDxfId="0">
+      <calculatedColumnFormula>Controller[[#This Row],[Qnty]]*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" uniqueName="4" name="Cmp name" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" uniqueName="5" name="Footprint" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" uniqueName="7" name="Mouser" queryTableFieldId="7" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C14D4A92-30ED-4B9A-A130-69519883F71B}" name="Digit_Colon" displayName="Digit_Colon" ref="A1:H15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{8515F4FD-81B2-4FE7-A87C-67B20552A42F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Digit_Colon" displayName="Digit_Colon" ref="A1:H15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H15"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2133042C-CDAC-45A5-A219-5F44FCC0FFA0}" uniqueName="1" name="Ref" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1D35F2CC-38D6-4298-8AFB-2EA97B024C40}" uniqueName="2" name="Qnty" queryTableFieldId="2"/>
-    <tableColumn id="9" xr3:uid="{4A9A16E6-E3FC-4F08-848D-5DD4B1A5CDE8}" uniqueName="9" name="Spalte1" queryTableFieldId="8" dataDxfId="0">
+    <tableColumn id="1" uniqueName="1" name="Ref" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" uniqueName="2" name="Qnty" queryTableFieldId="2"/>
+    <tableColumn id="9" uniqueName="9" name="Spalte1" queryTableFieldId="8" dataDxfId="6">
       <calculatedColumnFormula>Digit_Colon[[#This Row],[Qnty]]*13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{50B2EA05-C9DB-4FFD-AC0B-7C07A3109253}" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2A2B35EC-828F-47B9-B994-1DD349CB12FC}" uniqueName="4" name="Cmp name" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8D873570-93A7-475C-9452-2155565163BA}" uniqueName="5" name="Footprint" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0982AF94-83F6-47E5-99B4-13A2AAC7F89F}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F09EECD3-7CB5-4F71-8F4A-371178F3A901}" uniqueName="7" name="Mouser" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" uniqueName="4" name="Cmp name" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Footprint" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" uniqueName="7" name="Mouser" queryTableFieldId="7" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,25 +1203,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63100C25-AC14-4EB5-A911-19A816546D50}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,746 +1230,874 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>117</v>
@@ -1896,329 +2106,334 @@
         <v>118</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B40">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f>Controller[[#This Row],[Qnty]]*2</f>
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
+      <c r="H45" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2230,11 +2445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547D7525-8B19-4B16-965E-7BC5F94BE3DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2272,12 +2487,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -2287,24 +2502,24 @@
         <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2314,24 +2529,24 @@
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2341,24 +2556,24 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>64</v>
@@ -2368,24 +2583,24 @@
         <v>832</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2395,24 +2610,24 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2422,24 +2637,24 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2449,24 +2664,24 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2476,24 +2691,24 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2503,24 +2718,24 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2530,24 +2745,24 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2557,24 +2772,24 @@
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B13">
         <v>18</v>
@@ -2584,24 +2799,24 @@
         <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2611,24 +2826,24 @@
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2638,19 +2853,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310DB9C3-5CEC-4304-9749-E69829270881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
